--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_remove/rem4/67/correct_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_remove/rem4/67/correct_predictions_67.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -596,42 +596,42 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>AI Spot-Check failed</t>
+          <t>Restart camera</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2-4</t>
+          <t>5-6</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Camera error AI Spot-Check failed Restart camera .</t>
+          <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Restart camera</t>
+          <t>Minimum RTH Altitude is 30m</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>5-6</t>
+          <t>7-11</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -656,22 +656,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Minimum RTH Altitude is 30m</t>
+          <t>Aircraft is returning to the Home Point</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>7-11</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -686,52 +686,52 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point</t>
+          <t>You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0-6</t>
+          <t>12-26</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
+          <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary</t>
+          <t>Battery not installed properly</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>12-26</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -746,22 +746,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Battery not installed properly</t>
+          <t>Return to home immediately</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>4-7</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -776,12 +776,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Return to home immediately</t>
+          <t>Check and re-install battery</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>4-7</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -797,51 +797,51 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
+          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Check and re-install battery</t>
+          <t>Compass Stuck</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>8-11</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
+          <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Compass Stuck</t>
+          <t>Strong wind warning</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -866,22 +866,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Strong wind warning</t>
+          <t>Lower altitude immediately and return to home manually</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>10-17</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -896,42 +896,42 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Lower altitude immediately and return to home manually</t>
+          <t>Aircraft unable to return to home automatically</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>10-17</t>
+          <t>3-9</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
+          <t>No GPS signal Unable to hover Fly with caution .</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Aircraft unable to return to home automatically</t>
+          <t>No GPS signal</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>3-9</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -956,22 +956,22 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>No GPS signal</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>6-8</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -986,42 +986,42 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Unable to hover</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>6-8</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>No GPS signal Unable to hover Fly with caution .</t>
+          <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Unable to hover</t>
+          <t>AirSense communication error</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1046,72 +1046,72 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>AirSense communication error</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>12-14</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
+          <t>Extra payload detected Max altitude and distance set Fly with caution .</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Max altitude and distance set</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>12-14</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
+          <t>Extra payload detected Max altitude and distance set Fly with caution .</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Unable to display nearby manned aircraft and anti-collision warnings</t>
+          <t>Extra payload detected</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>3-11</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1136,82 +1136,82 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Max altitude and distance set</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>8-10</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Extra payload detected Max altitude and distance set Fly with caution .</t>
+          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Extra payload detected</t>
+          <t>Check the USB connection with aircraft</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-9</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Extra payload detected Max altitude and distance set Fly with caution .</t>
+          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Failed to take off</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>8-10</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1226,12 +1226,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Check the USB connection with aircraft</t>
+          <t>Contact DJI Support if this error persists after restarting</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>4-9</t>
+          <t>10-18</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1247,51 +1247,51 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
+          <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Failed to take off</t>
+          <t>RTH Altitude is nnn</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>7-10</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
+          <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Contact DJI Support if this error persists after restarting</t>
+          <t>You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>10-18</t>
+          <t>11-25</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1316,72 +1316,72 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>RTH Altitude is nnn</t>
+          <t>Aircraft is returning to the Home Point</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>7-10</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
+          <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary</t>
+          <t>Positioning accuracy may be compromised</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>11-25</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
+          <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point</t>
+          <t>Weak GPS signal</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0-6</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1406,192 +1406,192 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Positioning accuracy may be compromised</t>
+          <t>Please fly with caution</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
+          <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Weak GPS signal</t>
+          <t>Ensure you have obtained proper airspace authorization</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>10-16</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
+          <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Please fly with caution</t>
+          <t>Flight altitude exceeds nnn</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>8-11</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
+          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>May violate local policies and regulations</t>
+          <t>Compass Error</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>4-9</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
+          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Ensure you have obtained proper airspace authorization</t>
+          <t>Compass data error</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>10-16</t>
+          <t>2-4</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
+          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn</t>
+          <t>Please check the Compass installation and interference</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>5-11</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
+          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Compass Error</t>
+          <t>Return to Home failed</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>2-5</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1607,51 +1607,51 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
+          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Compass data error</t>
+          <t>Return the aircraft to home manually</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2-4</t>
+          <t>6-11</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
+          <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Please check the Compass installation and interference</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>5-11</t>
+          <t>7-9</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1667,31 +1667,31 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
+          <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Return the aircraft to home manually</t>
+          <t>Unable to hover</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>6-11</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1706,42 +1706,42 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Aircraft in Attitude mode</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>7-9</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
+          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Unable to hover</t>
+          <t>Flight altitude exceeds nnn</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1757,141 +1757,141 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
+          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Aircraft in Attitude mode</t>
+          <t>Check and make sure you have obtained proper authorization to fly in this airspace</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>14-27</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
+          <t>Camera RCAM not connected Image quality affected Contact DJI Support for assistance .</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Aircraft may be in violation of local laws and regulations</t>
+          <t>Image quality affected</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>4-13</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
+          <t>Camera RCAM not connected Image quality affected Contact DJI Support for assistance .</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn</t>
+          <t>Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>7-11</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
+          <t>Camera RCAM not connected Image quality affected Contact DJI Support for assistance .</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Check and make sure you have obtained proper authorization to fly in this airspace</t>
+          <t>Camera RCAM not connected</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>14-27</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Camera RCAM not connected Image quality affected Contact DJI Support for assistance .</t>
+          <t>GPS signal weak Hovering unstable Fly with caution .</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Image quality affected</t>
+          <t>GPS signal weak</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1907,81 +1907,81 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Camera RCAM not connected Image quality affected Contact DJI Support for assistance .</t>
+          <t>GPS signal weak Hovering unstable Fly with caution .</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Contact DJI Support for assistance</t>
+          <t>Hovering unstable</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>7-11</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Camera RCAM not connected Image quality affected Contact DJI Support for assistance .</t>
+          <t>GPS signal weak Hovering unstable Fly with caution .</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Camera RCAM not connected</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>5-7</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>GPS signal weak Hovering unstable Fly with caution .</t>
+          <t>Strong wind warning Aircraft unable to fly stably Lower altitude immediately and manually return to home .</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>GPS signal weak</t>
+          <t>Aircraft unable to fly stably</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -1997,21 +1997,21 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>GPS signal weak Hovering unstable Fly with caution .</t>
+          <t>Strong wind warning Aircraft unable to fly stably Lower altitude immediately and manually return to home .</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Hovering unstable</t>
+          <t>Strong wind warning</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2027,21 +2027,21 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>GPS signal weak Hovering unstable Fly with caution .</t>
+          <t>Strong wind warning Aircraft unable to fly stably Lower altitude immediately and manually return to home .</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Lower altitude immediately and manually return to home</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>5-7</t>
+          <t>8-15</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2050,96 +2050,6 @@
         </is>
       </c>
       <c r="F54" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>19</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Strong wind warning Aircraft unable to fly stably Lower altitude immediately and manually return to home .</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>Aircraft unable to fly stably</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>3-7</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>19</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Strong wind warning Aircraft unable to fly stably Lower altitude immediately and manually return to home .</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>Strong wind warning</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>0-2</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>19</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Strong wind warning Aircraft unable to fly stably Lower altitude immediately and manually return to home .</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>Lower altitude immediately and manually return to home</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>8-15</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_remove/rem4/67/correct_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_remove/rem4/67/correct_predictions_67.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -596,42 +596,42 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Restart camera</t>
+          <t>AI Spot-Check failed</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5-6</t>
+          <t>2-4</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
+          <t>Camera error AI Spot-Check failed Restart camera .</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Minimum RTH Altitude is 30m</t>
+          <t>Restart camera</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>7-11</t>
+          <t>5-6</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -656,22 +656,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point</t>
+          <t>Minimum RTH Altitude is 30m</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0-6</t>
+          <t>7-11</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -686,52 +686,52 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary</t>
+          <t>Aircraft is returning to the Home Point</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>12-26</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
+          <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Battery not installed properly</t>
+          <t>You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>12-26</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -746,22 +746,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Return to home immediately</t>
+          <t>Battery not installed properly</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4-7</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -776,12 +776,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Check and re-install battery</t>
+          <t>Return to home immediately</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>8-11</t>
+          <t>4-7</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -797,51 +797,51 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
+          <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Compass Stuck</t>
+          <t>Check and re-install battery</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
+          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Strong wind warning</t>
+          <t>Compass Stuck</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -866,22 +866,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Lower altitude immediately and return to home manually</t>
+          <t>Strong wind warning</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>10-17</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -896,42 +896,42 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Aircraft unable to return to home automatically</t>
+          <t>Lower altitude immediately and return to home manually</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>3-9</t>
+          <t>10-17</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>No GPS signal Unable to hover Fly with caution .</t>
+          <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>No GPS signal</t>
+          <t>Aircraft unable to return to home automatically</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-9</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -956,22 +956,22 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>No GPS signal</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>6-8</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -986,42 +986,42 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Unable to hover</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>6-8</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
+          <t>No GPS signal Unable to hover Fly with caution .</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>AirSense communication error</t>
+          <t>Unable to hover</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1046,72 +1046,72 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>AirSense communication error</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>12-14</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Extra payload detected Max altitude and distance set Fly with caution .</t>
+          <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Max altitude and distance set</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>12-14</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Extra payload detected Max altitude and distance set Fly with caution .</t>
+          <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Extra payload detected</t>
+          <t>Unable to display nearby manned aircraft and anti-collision warnings</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-11</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1136,82 +1136,82 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Max altitude and distance set</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>8-10</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
+          <t>Extra payload detected Max altitude and distance set Fly with caution .</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Check the USB connection with aircraft</t>
+          <t>Extra payload detected</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>4-9</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
+          <t>Extra payload detected Max altitude and distance set Fly with caution .</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Failed to take off</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>8-10</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1226,12 +1226,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Contact DJI Support if this error persists after restarting</t>
+          <t>Check the USB connection with aircraft</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>10-18</t>
+          <t>4-9</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1247,51 +1247,51 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
+          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>RTH Altitude is nnn</t>
+          <t>Failed to take off</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>7-10</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
+          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary</t>
+          <t>Contact DJI Support if this error persists after restarting</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>11-25</t>
+          <t>10-18</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1316,72 +1316,72 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point</t>
+          <t>RTH Altitude is nnn</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0-6</t>
+          <t>7-10</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
+          <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Positioning accuracy may be compromised</t>
+          <t>You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>11-25</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
+          <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Weak GPS signal</t>
+          <t>Aircraft is returning to the Home Point</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1406,192 +1406,192 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Please fly with caution</t>
+          <t>Positioning accuracy may be compromised</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>8-11</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
+          <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Ensure you have obtained proper airspace authorization</t>
+          <t>Weak GPS signal</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>10-16</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
+          <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn</t>
+          <t>Please fly with caution</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
+          <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Compass Error</t>
+          <t>May violate local policies and regulations</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>4-9</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
+          <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Compass data error</t>
+          <t>Ensure you have obtained proper airspace authorization</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2-4</t>
+          <t>10-16</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
+          <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Please check the Compass installation and interference</t>
+          <t>Flight altitude exceeds nnn</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>5-11</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
+          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Return to Home failed</t>
+          <t>Compass Error</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2-5</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1607,51 +1607,51 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
+          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Return the aircraft to home manually</t>
+          <t>Compass data error</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>6-11</t>
+          <t>2-4</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
+          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Please check the Compass installation and interference</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>7-9</t>
+          <t>5-11</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1667,31 +1667,31 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
+          <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Unable to hover</t>
+          <t>Return the aircraft to home manually</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>6-11</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1706,42 +1706,42 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Aircraft in Attitude mode</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>7-9</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
+          <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn</t>
+          <t>Unable to hover</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1757,141 +1757,141 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
+          <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Check and make sure you have obtained proper authorization to fly in this airspace</t>
+          <t>Aircraft in Attitude mode</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>14-27</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Camera RCAM not connected Image quality affected Contact DJI Support for assistance .</t>
+          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Image quality affected</t>
+          <t>Aircraft may be in violation of local laws and regulations</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>4-13</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Camera RCAM not connected Image quality affected Contact DJI Support for assistance .</t>
+          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Contact DJI Support for assistance</t>
+          <t>Flight altitude exceeds nnn</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>7-11</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Camera RCAM not connected Image quality affected Contact DJI Support for assistance .</t>
+          <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Camera RCAM not connected</t>
+          <t>Check and make sure you have obtained proper authorization to fly in this airspace</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>14-27</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>GPS signal weak Hovering unstable Fly with caution .</t>
+          <t>Camera RCAM not connected Image quality affected Contact DJI Support for assistance .</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>GPS signal weak</t>
+          <t>Image quality affected</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1907,81 +1907,81 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>GPS signal weak Hovering unstable Fly with caution .</t>
+          <t>Camera RCAM not connected Image quality affected Contact DJI Support for assistance .</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Hovering unstable</t>
+          <t>Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>7-11</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>GPS signal weak Hovering unstable Fly with caution .</t>
+          <t>Camera RCAM not connected Image quality affected Contact DJI Support for assistance .</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Camera RCAM not connected</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>5-7</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Strong wind warning Aircraft unable to fly stably Lower altitude immediately and manually return to home .</t>
+          <t>GPS signal weak Hovering unstable Fly with caution .</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Aircraft unable to fly stably</t>
+          <t>GPS signal weak</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -1997,21 +1997,21 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Strong wind warning Aircraft unable to fly stably Lower altitude immediately and manually return to home .</t>
+          <t>GPS signal weak Hovering unstable Fly with caution .</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Strong wind warning</t>
+          <t>Hovering unstable</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2027,29 +2027,119 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
+        <v>18</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>GPS signal weak Hovering unstable Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Fly with caution</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>5-7</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
         <v>19</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B55" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to fly stably Lower altitude immediately and manually return to home .</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Aircraft unable to fly stably</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>3-7</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>19</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Strong wind warning Aircraft unable to fly stably Lower altitude immediately and manually return to home .</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Strong wind warning</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0-2</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>19</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Strong wind warning Aircraft unable to fly stably Lower altitude immediately and manually return to home .</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
         <is>
           <t>Lower altitude immediately and manually return to home</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="D57" t="inlineStr">
         <is>
           <t>8-15</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
